--- a/testdata/Odoodata.xlsx
+++ b/testdata/Odoodata.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14250" windowHeight="6165"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -410,7 +411,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A3" sqref="A3:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/testdata/Odoodata.xlsx
+++ b/testdata/Odoodata.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>testcaseID</t>
   </si>
@@ -35,6 +34,27 @@
   </si>
   <si>
     <t>diganta27</t>
+  </si>
+  <si>
+    <t>TC_opportunity_011</t>
+  </si>
+  <si>
+    <t>SalesTeam-1</t>
+  </si>
+  <si>
+    <t>Member-1</t>
+  </si>
+  <si>
+    <t>member-1@gmail.com</t>
+  </si>
+  <si>
+    <t>Lead-1</t>
+  </si>
+  <si>
+    <t>Customer-1</t>
+  </si>
+  <si>
+    <t>Lead-1@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -58,7 +78,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -68,6 +88,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -100,12 +126,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -411,13 +445,18 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C10"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -458,16 +497,34 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
@@ -669,6 +726,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="H3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
